--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/VERMONT_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/VERMONT_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -387,7 +387,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C2">
@@ -522,7 +522,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C18">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C19">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C23">
@@ -711,7 +711,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C25">
@@ -830,7 +830,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C33">
@@ -1014,7 +1014,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C46">
@@ -1040,7 +1040,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C48">
@@ -1087,41 +1087,6 @@
       </c>
       <c r="D51">
         <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/VERMONT_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/VERMONT_2019.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Reforma</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -463,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -476,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>San Pedro Y San Pablo Teposcolula</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Santa María Ipalapa</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -916,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Comalcalco</t>
@@ -929,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -942,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -973,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -986,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -999,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -1012,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -1025,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -1038,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Sayula De Alemán</t>
@@ -1051,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -1064,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
